--- a/Jogos_do_Dia/2023-01-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="G2" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
         <v>1.01</v>
@@ -653,10 +653,10 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="N2" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="O2" t="n">
         <v>1.38</v>
@@ -695,19 +695,19 @@
         <v>3.17</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF2" t="n">
         <v>1.65</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="G3" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="I3" t="n">
         <v>1.05</v>
@@ -763,10 +763,10 @@
         <v>3.3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="N3" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
         <v>1.38</v>
@@ -805,28 +805,28 @@
         <v>3.24</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="4">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.26</v>
+        <v>2.23</v>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>1.08</v>
@@ -873,10 +873,10 @@
         <v>2.9</v>
       </c>
       <c r="M4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -915,25 +915,25 @@
         <v>2.66</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="H5" t="n">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="I5" t="n">
         <v>1.11</v>
@@ -986,7 +986,7 @@
         <v>2.4</v>
       </c>
       <c r="N5" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1025,25 +1025,25 @@
         <v>3.04</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="G6" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I6" t="n">
         <v>1.08</v>
@@ -1096,7 +1096,7 @@
         <v>2.15</v>
       </c>
       <c r="N6" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="G7" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="I7" t="n">
         <v>1.02</v>
@@ -1203,10 +1203,10 @@
         <v>3.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N7" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1230,10 +1230,10 @@
         <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>2.71</v>
+        <v>1.93</v>
       </c>
       <c r="W7" t="n">
-        <v>0.43</v>
+        <v>0.79</v>
       </c>
       <c r="X7" t="n">
         <v>2.1</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9">
@@ -1474,19 +1474,19 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
@@ -1694,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1804,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1914,19 +1914,19 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -2024,19 +2024,19 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="15">
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="16">
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="17">
@@ -2354,19 +2354,19 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="18">
@@ -2395,10 +2395,10 @@
         <v>1.15</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="H18" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I18" t="n">
         <v>1.02</v>
@@ -2455,13 +2455,13 @@
         <v>4.32</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.46</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H19" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
         <v>1.04</v>
@@ -2523,10 +2523,10 @@
         <v>3.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="N19" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="O19" t="n">
         <v>1.4</v>
@@ -2565,16 +2565,16 @@
         <v>2.93</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE19" t="n">
         <v>1.5</v>
@@ -2586,7 +2586,7 @@
         <v>2.25</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="20">
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="G20" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I20" t="n">
         <v>1.01</v>
@@ -2633,10 +2633,10 @@
         <v>4.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="N20" t="n">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="O20" t="n">
         <v>1.24</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G21" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="H21" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
         <v>1.09</v>
@@ -2743,10 +2743,10 @@
         <v>2.6</v>
       </c>
       <c r="M21" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N21" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O21" t="n">
         <v>1.53</v>
@@ -2785,25 +2785,25 @@
         <v>2.73</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH21" t="n">
         <v>0</v>
@@ -2832,10 +2832,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="H22" t="n">
         <v>5.6</v>
@@ -2853,10 +2853,10 @@
         <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="N22" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="G23" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="I23" t="n">
         <v>1.07</v>
@@ -2966,7 +2966,7 @@
         <v>2.2</v>
       </c>
       <c r="N23" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -3005,13 +3005,13 @@
         <v>2.87</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AD23" t="n">
         <v>1.18</v>

--- a/Jogos_do_Dia/2023-01-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
         <v>1.01</v>
@@ -656,7 +656,7 @@
         <v>1.83</v>
       </c>
       <c r="N2" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="O2" t="n">
         <v>1.38</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="I3" t="n">
         <v>1.05</v>
@@ -763,10 +763,10 @@
         <v>3.3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O3" t="n">
         <v>1.38</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
         <v>1.08</v>
@@ -936,7 +936,7 @@
         <v>2.95</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="5">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.7</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.55</v>
       </c>
       <c r="I5" t="n">
         <v>1.11</v>
@@ -977,16 +977,16 @@
         <v>6.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M5" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1046,7 +1046,7 @@
         <v>2.63</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="G6" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="I6" t="n">
         <v>1.08</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
         <v>1.02</v>
@@ -1203,10 +1203,10 @@
         <v>3.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="N7" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1230,10 +1230,10 @@
         <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.93</v>
+        <v>2.71</v>
       </c>
       <c r="W7" t="n">
-        <v>0.79</v>
+        <v>0.43</v>
       </c>
       <c r="X7" t="n">
         <v>2.1</v>
@@ -1355,13 +1355,13 @@
         <v>2.82</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AD8" t="n">
         <v>1.29</v>
@@ -1465,13 +1465,13 @@
         <v>3.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AD9" t="n">
         <v>1.22</v>
@@ -1575,13 +1575,13 @@
         <v>2.77</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         <v>2.91</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AD11" t="n">
         <v>1.22</v>
@@ -1795,13 +1795,13 @@
         <v>2.85</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AD12" t="n">
         <v>1.22</v>
@@ -1905,13 +1905,13 @@
         <v>2.67</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AD13" t="n">
         <v>1.22</v>
@@ -2015,13 +2015,13 @@
         <v>2.38</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AD14" t="n">
         <v>1.36</v>
@@ -2125,13 +2125,13 @@
         <v>3.31</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="AD15" t="n">
         <v>1.18</v>
@@ -2235,13 +2235,13 @@
         <v>2.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>3.48</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="AD17" t="n">
         <v>1.32</v>
@@ -2392,10 +2392,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="G18" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H18" t="n">
         <v>13</v>
@@ -2464,7 +2464,7 @@
         <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE18" t="n">
         <v>1.3</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
         <v>1.04</v>
@@ -2523,7 +2523,7 @@
         <v>3.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="N19" t="n">
         <v>1.95</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="H20" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
         <v>1.01</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="G21" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>5.25</v>
       </c>
       <c r="I21" t="n">
         <v>1.09</v>
@@ -2806,7 +2806,7 @@
         <v>2.63</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="22">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="G22" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>5.6</v>
+        <v>5.25</v>
       </c>
       <c r="I22" t="n">
         <v>1.05</v>
@@ -2853,10 +2853,10 @@
         <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -2942,10 +2942,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="G23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
         <v>2.7</v>
